--- a/ISRaD_Data/Torn_2002.xlsx
+++ b/ISRaD_Data/Torn_2002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23140" windowHeight="15220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="controlled vocabulary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2230,15 +2235,6 @@
     <t>frc_14c_sd</t>
   </si>
   <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sigma</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sd</t>
-  </si>
-  <si>
     <t>frc_mbc_method</t>
   </si>
   <si>
@@ -3444,13 +3440,22 @@
   </si>
   <si>
     <t>CAMS</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sigma</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3466,16 +3471,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3483,14 +3507,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3791,13 +3852,13 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3847,7 +3908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3894,7 +3955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3932,7 +3993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3943,13 +4004,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E4" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -3961,16 +4022,16 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="P4" t="s">
         <v>50</v>
@@ -3983,6 +4044,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3994,13 +4060,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4046,7 +4112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4063,12 +4129,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -4083,6 +4149,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4094,15 +4165,15 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
-    <col min="7" max="7" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4322,7 +4393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4417,15 +4488,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -4455,21 +4526,21 @@
         <v>160</v>
       </c>
       <c r="Y4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AA4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -4499,21 +4570,21 @@
         <v>160</v>
       </c>
       <c r="Y5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AA5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -4543,7 +4614,7 @@
         <v>160</v>
       </c>
       <c r="Y6" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AA6" t="s">
         <v>161</v>
@@ -4552,6 +4623,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4561,9 +4637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4786,7 +4862,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4869,6 +4945,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4876,23 +4957,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="19" topLeftCell="AV20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
       <selection pane="bottomRight" activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="40.26953125" customWidth="1"/>
-    <col min="9" max="10" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:98">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5269,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:98">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5484,7 +5565,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:98">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5723,18 +5804,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:98">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E4" t="s">
         <v>436</v>
@@ -5749,7 +5830,7 @@
         <v>439</v>
       </c>
       <c r="N4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P4" t="s">
         <v>440</v>
@@ -5761,7 +5842,7 @@
         <v>6.11</v>
       </c>
       <c r="AC4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO4" t="s">
         <v>442</v>
@@ -5776,7 +5857,7 @@
         <v>445</v>
       </c>
       <c r="AW4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ4" t="s">
         <v>446</v>
@@ -5785,18 +5866,18 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:98">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E5" t="s">
         <v>436</v>
@@ -5811,7 +5892,7 @@
         <v>439</v>
       </c>
       <c r="N5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P5" t="s">
         <v>478</v>
@@ -5823,7 +5904,7 @@
         <v>6.25</v>
       </c>
       <c r="AC5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO5" t="s">
         <v>480</v>
@@ -5838,7 +5919,7 @@
         <v>483</v>
       </c>
       <c r="AW5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ5" t="s">
         <v>484</v>
@@ -5847,18 +5928,18 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:98">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C6" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E6" t="s">
         <v>436</v>
@@ -5873,7 +5954,7 @@
         <v>439</v>
       </c>
       <c r="N6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P6" t="s">
         <v>494</v>
@@ -5885,7 +5966,7 @@
         <v>6.39</v>
       </c>
       <c r="AC6" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO6" t="s">
         <v>496</v>
@@ -5900,7 +5981,7 @@
         <v>499</v>
       </c>
       <c r="AW6" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ6" t="s">
         <v>500</v>
@@ -5909,18 +5990,18 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:98">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C7" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D7" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E7" t="s">
         <v>436</v>
@@ -5935,13 +6016,13 @@
         <v>439</v>
       </c>
       <c r="N7" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="P7" t="s">
         <v>516</v>
       </c>
       <c r="AC7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO7" t="s">
         <v>517</v>
@@ -5956,7 +6037,7 @@
         <v>520</v>
       </c>
       <c r="AW7" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ7" t="s">
         <v>521</v>
@@ -5965,18 +6046,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:98">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C8" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D8" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E8" t="s">
         <v>436</v>
@@ -5991,7 +6072,7 @@
         <v>439</v>
       </c>
       <c r="N8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P8" t="s">
         <v>543</v>
@@ -6003,7 +6084,7 @@
         <v>6.43</v>
       </c>
       <c r="AC8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO8" t="s">
         <v>545</v>
@@ -6018,7 +6099,7 @@
         <v>548</v>
       </c>
       <c r="AW8" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ8" t="s">
         <v>549</v>
@@ -6027,18 +6108,18 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:98">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E9" t="s">
         <v>436</v>
@@ -6053,7 +6134,7 @@
         <v>579</v>
       </c>
       <c r="N9" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P9" t="s">
         <v>560</v>
@@ -6065,7 +6146,7 @@
         <v>6.59</v>
       </c>
       <c r="AC9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO9" t="s">
         <v>581</v>
@@ -6080,7 +6161,7 @@
         <v>584</v>
       </c>
       <c r="AW9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ9" t="s">
         <v>585</v>
@@ -6089,18 +6170,18 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:98">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C10" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E10" t="s">
         <v>436</v>
@@ -6115,13 +6196,13 @@
         <v>579</v>
       </c>
       <c r="N10" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="P10" t="s">
         <v>570</v>
       </c>
       <c r="AC10" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO10" t="s">
         <v>588</v>
@@ -6136,7 +6217,7 @@
         <v>591</v>
       </c>
       <c r="AW10" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ10" t="s">
         <v>592</v>
@@ -6145,18 +6226,18 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:98">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C11" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E11" t="s">
         <v>436</v>
@@ -6171,13 +6252,13 @@
         <v>552</v>
       </c>
       <c r="N11" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="P11" t="s">
         <v>570</v>
       </c>
       <c r="AC11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO11" t="s">
         <v>595</v>
@@ -6192,7 +6273,7 @@
         <v>598</v>
       </c>
       <c r="AW11" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ11" t="s">
         <v>599</v>
@@ -6201,18 +6282,18 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:98">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C12" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D12" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E12" t="s">
         <v>436</v>
@@ -6227,7 +6308,7 @@
         <v>552</v>
       </c>
       <c r="N12" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="P12" t="s">
         <v>570</v>
@@ -6239,7 +6320,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="AC12" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO12" t="s">
         <v>628</v>
@@ -6254,7 +6335,7 @@
         <v>631</v>
       </c>
       <c r="AW12" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ12" t="s">
         <v>632</v>
@@ -6263,18 +6344,18 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:98">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C13" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D13" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E13" t="s">
         <v>436</v>
@@ -6289,7 +6370,7 @@
         <v>569</v>
       </c>
       <c r="N13" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P13" t="s">
         <v>570</v>
@@ -6298,7 +6379,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="AC13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO13" t="s">
         <v>572</v>
@@ -6313,7 +6394,7 @@
         <v>575</v>
       </c>
       <c r="AW13" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ13" t="s">
         <v>576</v>
@@ -6322,18 +6403,18 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:98">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C14" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D14" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E14" t="s">
         <v>436</v>
@@ -6351,7 +6432,7 @@
         <v>449</v>
       </c>
       <c r="AC14" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO14" t="s">
         <v>450</v>
@@ -6366,7 +6447,7 @@
         <v>453</v>
       </c>
       <c r="AW14" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ14" t="s">
         <v>454</v>
@@ -6375,18 +6456,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:98">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C15" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D15" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E15" t="s">
         <v>436</v>
@@ -6404,7 +6485,7 @@
         <v>464</v>
       </c>
       <c r="AC15" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO15" t="s">
         <v>471</v>
@@ -6419,7 +6500,7 @@
         <v>474</v>
       </c>
       <c r="AW15" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ15" t="s">
         <v>475</v>
@@ -6428,18 +6509,18 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:98">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C16" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D16" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E16" t="s">
         <v>436</v>
@@ -6457,7 +6538,7 @@
         <v>487</v>
       </c>
       <c r="AC16" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO16" t="s">
         <v>488</v>
@@ -6472,24 +6553,24 @@
         <v>491</v>
       </c>
       <c r="AW16" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D17" t="s">
         <v>1114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1117</v>
       </c>
       <c r="E17" t="s">
         <v>436</v>
@@ -6507,7 +6588,7 @@
         <v>509</v>
       </c>
       <c r="AC17" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO17" t="s">
         <v>510</v>
@@ -6522,24 +6603,24 @@
         <v>513</v>
       </c>
       <c r="AW17" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C18" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D18" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E18" t="s">
         <v>436</v>
@@ -6557,7 +6638,7 @@
         <v>530</v>
       </c>
       <c r="AC18" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO18" t="s">
         <v>531</v>
@@ -6572,24 +6653,24 @@
         <v>534</v>
       </c>
       <c r="AW18" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C19" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D19" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E19" t="s">
         <v>436</v>
@@ -6607,7 +6688,7 @@
         <v>553</v>
       </c>
       <c r="AC19" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO19" t="s">
         <v>554</v>
@@ -6622,24 +6703,24 @@
         <v>557</v>
       </c>
       <c r="AW19" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ19" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C20" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D20" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E20" t="s">
         <v>436</v>
@@ -6657,7 +6738,7 @@
         <v>602</v>
       </c>
       <c r="AC20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO20" t="s">
         <v>609</v>
@@ -6672,24 +6753,24 @@
         <v>612</v>
       </c>
       <c r="AW20" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ20" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C21" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D21" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E21" t="s">
         <v>436</v>
@@ -6707,7 +6788,7 @@
         <v>615</v>
       </c>
       <c r="AC21" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO21" t="s">
         <v>616</v>
@@ -6722,24 +6803,24 @@
         <v>619</v>
       </c>
       <c r="AW21" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ21" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C22" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D22" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E22" t="s">
         <v>436</v>
@@ -6757,7 +6838,7 @@
         <v>622</v>
       </c>
       <c r="AC22" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO22" t="s">
         <v>643</v>
@@ -6772,24 +6853,24 @@
         <v>646</v>
       </c>
       <c r="AW22" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ22" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C23" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D23" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E23" t="s">
         <v>436</v>
@@ -6807,7 +6888,7 @@
         <v>635</v>
       </c>
       <c r="AC23" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO23" t="s">
         <v>656</v>
@@ -6822,7 +6903,7 @@
         <v>659</v>
       </c>
       <c r="AW23" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ23" t="s">
         <v>660</v>
@@ -6831,18 +6912,18 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D24" t="s">
         <v>1100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1103</v>
       </c>
       <c r="E24" t="s">
         <v>456</v>
@@ -6866,7 +6947,7 @@
         <v>6.51</v>
       </c>
       <c r="AC24" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO24" t="s">
         <v>457</v>
@@ -6881,7 +6962,7 @@
         <v>460</v>
       </c>
       <c r="AW24" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ24" t="s">
         <v>461</v>
@@ -6890,18 +6971,18 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55">
       <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C25" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D25" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E25" t="s">
         <v>456</v>
@@ -6925,7 +7006,7 @@
         <v>6.45</v>
       </c>
       <c r="AC25" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO25" t="s">
         <v>465</v>
@@ -6940,7 +7021,7 @@
         <v>468</v>
       </c>
       <c r="AW25" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ25" t="s">
         <v>469</v>
@@ -6949,18 +7030,18 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C26" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D26" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E26" t="s">
         <v>456</v>
@@ -6984,7 +7065,7 @@
         <v>6.66</v>
       </c>
       <c r="AC26" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO26" t="s">
         <v>502</v>
@@ -6999,7 +7080,7 @@
         <v>505</v>
       </c>
       <c r="AW26" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ26" t="s">
         <v>506</v>
@@ -7008,18 +7089,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C27" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D27" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E27" t="s">
         <v>456</v>
@@ -7043,7 +7124,7 @@
         <v>6.51</v>
       </c>
       <c r="AC27" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO27" t="s">
         <v>523</v>
@@ -7058,7 +7139,7 @@
         <v>526</v>
       </c>
       <c r="AW27" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ27" t="s">
         <v>527</v>
@@ -7067,18 +7148,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C28" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D28" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E28" t="s">
         <v>456</v>
@@ -7102,7 +7183,7 @@
         <v>6.58</v>
       </c>
       <c r="AC28" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO28" t="s">
         <v>536</v>
@@ -7117,7 +7198,7 @@
         <v>539</v>
       </c>
       <c r="AW28" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ28" t="s">
         <v>540</v>
@@ -7126,18 +7207,18 @@
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C29" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D29" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E29" t="s">
         <v>456</v>
@@ -7161,7 +7242,7 @@
         <v>6.61</v>
       </c>
       <c r="AC29" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO29" t="s">
         <v>561</v>
@@ -7176,7 +7257,7 @@
         <v>564</v>
       </c>
       <c r="AW29" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ29" t="s">
         <v>565</v>
@@ -7185,18 +7266,18 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C30" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D30" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E30" t="s">
         <v>456</v>
@@ -7226,24 +7307,24 @@
         <v>606</v>
       </c>
       <c r="AW30" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ30" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C31" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D31" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E31" t="s">
         <v>456</v>
@@ -7273,24 +7354,24 @@
         <v>626</v>
       </c>
       <c r="AW31" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ31" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C32" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D32" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E32" t="s">
         <v>456</v>
@@ -7314,7 +7395,7 @@
         <v>7.68</v>
       </c>
       <c r="AC32" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO32" t="s">
         <v>636</v>
@@ -7329,7 +7410,7 @@
         <v>639</v>
       </c>
       <c r="AW32" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ32" t="s">
         <v>640</v>
@@ -7338,18 +7419,18 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C33" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D33" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E33" t="s">
         <v>456</v>
@@ -7373,7 +7454,7 @@
         <v>7.42</v>
       </c>
       <c r="AC33" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AO33" t="s">
         <v>650</v>
@@ -7388,7 +7469,7 @@
         <v>653</v>
       </c>
       <c r="AW33" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AZ33" t="s">
         <v>654</v>
@@ -7401,6 +7482,11 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7410,9 +7496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7498,7 +7584,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7581,7 +7667,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7631,6 +7717,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7638,11 +7729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AK1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" ht="52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7745,125 +7838,125 @@
       <c r="AH1" t="s">
         <v>734</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AL1" t="s">
         <v>735</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>736</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>737</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>738</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>739</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>740</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>741</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>742</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>743</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>744</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>745</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>746</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>747</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>748</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>749</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>750</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>751</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>752</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>753</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>754</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>755</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>756</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>757</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>758</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>759</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>760</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>761</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>762</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>763</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>764</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>765</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>766</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>767</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>768</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>769</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>770</v>
       </c>
-      <c r="BS1" t="s">
-        <v>771</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>772</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>773</v>
-      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7877,40 +7970,40 @@
         <v>336</v>
       </c>
       <c r="E2" t="s">
+        <v>771</v>
+      </c>
+      <c r="F2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G2" t="s">
+        <v>773</v>
+      </c>
+      <c r="H2" t="s">
         <v>774</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>775</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>776</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>777</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>778</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>779</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>780</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>781</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>782</v>
-      </c>
-      <c r="N2" t="s">
-        <v>783</v>
-      </c>
-      <c r="O2" t="s">
-        <v>784</v>
-      </c>
-      <c r="P2" t="s">
-        <v>785</v>
       </c>
       <c r="Q2" t="s">
         <v>199</v>
@@ -7922,28 +8015,28 @@
         <v>201</v>
       </c>
       <c r="U2" t="s">
+        <v>783</v>
+      </c>
+      <c r="V2" t="s">
+        <v>784</v>
+      </c>
+      <c r="W2" t="s">
+        <v>785</v>
+      </c>
+      <c r="X2" t="s">
         <v>786</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>787</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>788</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>789</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>790</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>793</v>
       </c>
       <c r="AC2" t="s">
         <v>220</v>
@@ -7955,22 +8048,22 @@
         <v>222</v>
       </c>
       <c r="AF2" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>792</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI2" t="s">
         <v>794</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>795</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>796</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>797</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>798</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>799</v>
       </c>
       <c r="AL2" t="s">
         <v>384</v>
@@ -7994,7 +8087,7 @@
         <v>393</v>
       </c>
       <c r="AS2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AT2" t="s">
         <v>395</v>
@@ -8045,7 +8138,7 @@
         <v>411</v>
       </c>
       <c r="BJ2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="BK2" t="s">
         <v>413</v>
@@ -8081,24 +8174,24 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>799</v>
+      </c>
+      <c r="G3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I3" t="s">
         <v>802</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>803</v>
-      </c>
-      <c r="H3" t="s">
-        <v>804</v>
-      </c>
-      <c r="I3" t="s">
-        <v>805</v>
-      </c>
-      <c r="M3" t="s">
-        <v>806</v>
       </c>
       <c r="N3" t="s">
         <v>137</v>
@@ -8158,49 +8251,49 @@
         <v>433</v>
       </c>
       <c r="AO3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AP3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AQ3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AR3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AT3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AU3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AV3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AW3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AY3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AZ3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BA3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BB3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BD3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BE3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BF3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BG3" t="s">
         <v>435</v>
@@ -8251,6 +8344,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8260,9 +8358,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8279,82 +8377,82 @@
         <v>705</v>
       </c>
       <c r="F1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H1" t="s">
+        <v>807</v>
+      </c>
+      <c r="I1" t="s">
         <v>808</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>809</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>810</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>811</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>812</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>813</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>814</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>815</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>816</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>817</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>818</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>819</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>820</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>821</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>822</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>823</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>824</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>825</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>826</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>827</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>828</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>829</v>
       </c>
-      <c r="AB1" t="s">
-        <v>830</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>831</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>832</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8362,16 +8460,16 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2" t="s">
         <v>833</v>
-      </c>
-      <c r="D2" t="s">
-        <v>834</v>
-      </c>
-      <c r="E2" t="s">
-        <v>835</v>
-      </c>
-      <c r="F2" t="s">
-        <v>836</v>
       </c>
       <c r="G2" t="s">
         <v>342</v>
@@ -8386,28 +8484,28 @@
         <v>201</v>
       </c>
       <c r="K2" t="s">
+        <v>834</v>
+      </c>
+      <c r="N2" t="s">
+        <v>835</v>
+      </c>
+      <c r="O2" t="s">
+        <v>836</v>
+      </c>
+      <c r="P2" t="s">
         <v>837</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>838</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>839</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>840</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>841</v>
-      </c>
-      <c r="R2" t="s">
-        <v>842</v>
-      </c>
-      <c r="T2" t="s">
-        <v>843</v>
-      </c>
-      <c r="U2" t="s">
-        <v>844</v>
       </c>
       <c r="V2" t="s">
         <v>220</v>
@@ -8419,25 +8517,25 @@
         <v>222</v>
       </c>
       <c r="Y2" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>843</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>844</v>
+      </c>
+      <c r="AB2" t="s">
         <v>845</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>846</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>847</v>
       </c>
-      <c r="AB2" t="s">
-        <v>848</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>849</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>850</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8454,13 +8552,13 @@
         <v>704</v>
       </c>
       <c r="L3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="M3" t="s">
         <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="Q3" t="s">
         <v>143</v>
@@ -8487,6 +8585,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8498,143 +8601,143 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1" t="s">
         <v>853</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>854</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>855</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>856</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>857</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>858</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>859</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>860</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>861</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>862</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>863</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>864</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>865</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>866</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>867</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>868</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>869</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>870</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>871</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>872</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>873</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>874</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>875</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>876</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>877</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>878</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>879</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>880</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>881</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>882</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>883</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>884</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>885</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>886</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>887</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>888</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>889</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>890</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>891</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>892</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>893</v>
       </c>
-      <c r="AP1" t="s">
-        <v>894</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>895</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>896</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -8714,7 +8817,7 @@
         <v>252</v>
       </c>
       <c r="AA2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AB2" t="s">
         <v>666</v>
@@ -8732,22 +8835,22 @@
         <v>675</v>
       </c>
       <c r="AG2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AH2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AI2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AJ2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AK2" t="s">
+        <v>815</v>
+      </c>
+      <c r="AL2" t="s">
         <v>818</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>821</v>
       </c>
       <c r="AM2" t="s">
         <v>708</v>
@@ -8765,736 +8868,741 @@
         <v>714</v>
       </c>
       <c r="AR2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44">
       <c r="G3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H3" t="s">
+        <v>897</v>
+      </c>
+      <c r="I3" t="s">
+        <v>898</v>
+      </c>
+      <c r="U3" t="s">
+        <v>897</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AO3" t="s">
         <v>899</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AP3" t="s">
         <v>900</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
         <v>901</v>
       </c>
-      <c r="U3" t="s">
-        <v>900</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>777</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="B4" t="s">
         <v>902</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="C4" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>904</v>
-      </c>
-      <c r="B4" t="s">
-        <v>905</v>
-      </c>
-      <c r="C4" t="s">
-        <v>906</v>
-      </c>
-      <c r="D4" t="s">
-        <v>907</v>
       </c>
       <c r="E4" t="s">
         <v>158</v>
       </c>
       <c r="F4" t="s">
+        <v>905</v>
+      </c>
+      <c r="G4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H4" t="s">
+        <v>907</v>
+      </c>
+      <c r="I4" t="s">
         <v>908</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>909</v>
-      </c>
-      <c r="H4" t="s">
-        <v>910</v>
-      </c>
-      <c r="I4" t="s">
-        <v>911</v>
-      </c>
-      <c r="J4" t="s">
-        <v>912</v>
       </c>
       <c r="K4" t="s">
         <v>156</v>
       </c>
       <c r="L4" t="s">
+        <v>910</v>
+      </c>
+      <c r="M4" t="s">
+        <v>911</v>
+      </c>
+      <c r="N4" t="s">
+        <v>912</v>
+      </c>
+      <c r="O4" t="s">
         <v>913</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>914</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>915</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>903</v>
+      </c>
+      <c r="S4" t="s">
+        <v>903</v>
+      </c>
+      <c r="T4" t="s">
         <v>916</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>917</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>918</v>
       </c>
-      <c r="R4" t="s">
-        <v>906</v>
-      </c>
-      <c r="S4" t="s">
-        <v>906</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>919</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z4" t="s">
         <v>920</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>921</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>922</v>
       </c>
-      <c r="X4" t="s">
-        <v>906</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>906</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>911</v>
+      </c>
+      <c r="AD4" t="s">
         <v>923</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>914</v>
+      </c>
+      <c r="AF4" t="s">
         <v>924</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>925</v>
       </c>
-      <c r="AC4" t="s">
-        <v>914</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>912</v>
+      </c>
+      <c r="AI4" t="s">
         <v>926</v>
       </c>
-      <c r="AE4" t="s">
-        <v>917</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>927</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>928</v>
       </c>
-      <c r="AH4" t="s">
-        <v>915</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>929</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>930</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>931</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>932</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>933</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
+        <v>903</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>934</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="B5" t="s">
         <v>935</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="D5" t="s">
         <v>936</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>906</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>922</v>
+      <c r="E5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F5" t="s">
+        <v>938</v>
+      </c>
+      <c r="G5" t="s">
+        <v>939</v>
+      </c>
+      <c r="H5" t="s">
+        <v>940</v>
+      </c>
+      <c r="I5" t="s">
+        <v>941</v>
+      </c>
+      <c r="J5" t="s">
+        <v>942</v>
+      </c>
+      <c r="K5" t="s">
+        <v>943</v>
+      </c>
+      <c r="L5" t="s">
+        <v>944</v>
+      </c>
+      <c r="M5" t="s">
+        <v>945</v>
+      </c>
+      <c r="N5" t="s">
+        <v>946</v>
+      </c>
+      <c r="O5" t="s">
+        <v>947</v>
+      </c>
+      <c r="P5" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>949</v>
+      </c>
+      <c r="T5" t="s">
+        <v>950</v>
+      </c>
+      <c r="U5" t="s">
+        <v>951</v>
+      </c>
+      <c r="V5" t="s">
+        <v>952</v>
+      </c>
+      <c r="W5" t="s">
+        <v>953</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>954</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>955</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>945</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>948</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>957</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>958</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>946</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>959</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>960</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>961</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>962</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>963</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>964</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>966</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>953</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>937</v>
-      </c>
-      <c r="B5" t="s">
-        <v>938</v>
-      </c>
-      <c r="D5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E5" t="s">
-        <v>940</v>
-      </c>
-      <c r="F5" t="s">
-        <v>941</v>
-      </c>
-      <c r="G5" t="s">
-        <v>942</v>
-      </c>
-      <c r="H5" t="s">
-        <v>943</v>
-      </c>
-      <c r="I5" t="s">
-        <v>944</v>
-      </c>
-      <c r="J5" t="s">
-        <v>945</v>
-      </c>
-      <c r="K5" t="s">
-        <v>946</v>
-      </c>
-      <c r="L5" t="s">
-        <v>947</v>
-      </c>
-      <c r="M5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N5" t="s">
-        <v>949</v>
-      </c>
-      <c r="O5" t="s">
-        <v>950</v>
-      </c>
-      <c r="P5" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>952</v>
-      </c>
-      <c r="T5" t="s">
-        <v>953</v>
-      </c>
-      <c r="U5" t="s">
-        <v>954</v>
-      </c>
-      <c r="V5" t="s">
-        <v>955</v>
-      </c>
-      <c r="W5" t="s">
-        <v>956</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>957</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>958</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>948</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>959</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>951</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>960</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>961</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>949</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>962</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>963</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>964</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>965</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>966</v>
-      </c>
-      <c r="AN5" t="s">
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>967</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="B6" t="s">
         <v>968</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="D6" t="s">
         <v>969</v>
       </c>
-      <c r="AR5" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>970</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>971</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>972</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>973</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>974</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>975</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>976</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>977</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>978</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>979</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>980</v>
-      </c>
-      <c r="N6" t="s">
-        <v>981</v>
-      </c>
-      <c r="O6" t="s">
-        <v>982</v>
-      </c>
-      <c r="P6" t="s">
-        <v>983</v>
       </c>
       <c r="Q6" t="s">
         <v>704</v>
       </c>
       <c r="T6" t="s">
+        <v>981</v>
+      </c>
+      <c r="U6" t="s">
+        <v>982</v>
+      </c>
+      <c r="V6" t="s">
+        <v>983</v>
+      </c>
+      <c r="W6" t="s">
         <v>984</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>985</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>986</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>977</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>980</v>
+      </c>
+      <c r="AF6" t="s">
         <v>987</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>988</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>989</v>
       </c>
-      <c r="AC6" t="s">
-        <v>980</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>990</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>970</v>
+      </c>
+      <c r="AM6" t="s">
         <v>991</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>992</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>993</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>973</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>994</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>995</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>996</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B7" t="s">
+        <v>995</v>
+      </c>
+      <c r="F7" t="s">
+        <v>996</v>
+      </c>
+      <c r="G7" t="s">
         <v>997</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>998</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>999</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>1000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>1001</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>1002</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>1003</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>1004</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>1005</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>1006</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>1007</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AC7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1008</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AG7" t="s">
         <v>1009</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AI7" t="s">
         <v>1010</v>
       </c>
-      <c r="AC7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>1011</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>1012</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>1013</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>1014</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AR7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
         <v>1015</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="B8" t="s">
         <v>1016</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1019</v>
       </c>
       <c r="F8" t="s">
         <v>159</v>
       </c>
       <c r="G8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L8" t="s">
         <v>1020</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>1021</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>1022</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>1023</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>1024</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>1025</v>
       </c>
-      <c r="P8" t="s">
+      <c r="V8" t="s">
         <v>1026</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
+        <v>970</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AG8" t="s">
         <v>1027</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AM8" t="s">
         <v>1028</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AN8" t="s">
         <v>1029</v>
       </c>
-      <c r="W8" t="s">
-        <v>973</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AO8" t="s">
         <v>1030</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1033</v>
       </c>
       <c r="AP8" t="s">
         <v>704</v>
       </c>
       <c r="AR8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G9" t="s">
         <v>1034</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>1035</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>1036</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>1037</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>1038</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>1039</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>1040</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
         <v>1041</v>
       </c>
-      <c r="P9" t="s">
+      <c r="AE9" t="s">
         <v>1042</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AG9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AM9" t="s">
         <v>1043</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AN9" t="s">
         <v>1044</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>1045</v>
       </c>
-      <c r="AG9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AP9" t="s">
         <v>1046</v>
       </c>
-      <c r="AN9" t="s">
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" t="s">
         <v>1047</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="B10" t="s">
         <v>1048</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="F10" t="s">
         <v>1049</v>
       </c>
+      <c r="G10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AN10" t="s">
+    <row r="11" spans="1:44">
+      <c r="B11" t="s">
         <v>1057</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="F11" t="s">
         <v>1058</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="H11" t="s">
         <v>1059</v>
       </c>
+      <c r="U11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="U11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AM11" t="s">
+    <row r="12" spans="1:44">
+      <c r="H12" t="s">
         <v>1064</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="U12" t="s">
         <v>1065</v>
       </c>
-      <c r="AO11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AM12" t="s">
         <v>1066</v>
       </c>
+      <c r="AN12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="H12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AM12" t="s">
+    <row r="13" spans="1:44">
+      <c r="U13" t="s">
         <v>1069</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM13" t="s">
         <v>1070</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AN13" t="s">
         <v>1071</v>
       </c>
+      <c r="AO13" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="U13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AM13" t="s">
+    <row r="14" spans="1:44">
+      <c r="U14" t="s">
         <v>1073</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AN14" t="s">
         <v>1074</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO14" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="U14" t="s">
+    <row r="15" spans="1:44">
+      <c r="U15" t="s">
         <v>1076</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN15" t="s">
         <v>1077</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO15" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="U15" t="s">
+    <row r="16" spans="1:44">
+      <c r="U16" t="s">
         <v>1079</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN16" t="s">
         <v>1080</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO16" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="U16" t="s">
+    <row r="17" spans="40:41">
+      <c r="AN17" t="s">
         <v>1082</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO17" t="s">
         <v>1083</v>
       </c>
-      <c r="AO16" t="s">
+    </row>
+    <row r="18" spans="40:41">
+      <c r="AN18" t="s">
         <v>1084</v>
       </c>
+      <c r="AO18" t="s">
+        <v>1085</v>
+      </c>
     </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.35">
-      <c r="AN17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AO17" t="s">
+    <row r="19" spans="40:41">
+      <c r="AN19" t="s">
         <v>1086</v>
       </c>
+      <c r="AO19" t="s">
+        <v>1087</v>
+      </c>
     </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.35">
-      <c r="AN18" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AO18" t="s">
+    <row r="20" spans="40:41">
+      <c r="AN20" t="s">
         <v>1088</v>
       </c>
+      <c r="AO20" t="s">
+        <v>1089</v>
+      </c>
     </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.35">
-      <c r="AN19" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AO19" t="s">
+    <row r="21" spans="40:41">
+      <c r="AN21" t="s">
         <v>1090</v>
-      </c>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.35">
-      <c r="AN20" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.35">
-      <c r="AN21" t="s">
-        <v>1093</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>